--- a/biology/Botanique/Echinocereus/Echinocereus.xlsx
+++ b/biology/Botanique/Echinocereus/Echinocereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocereus est un genre de plantes à fleurs de la famille des Cactaceae (les cactus) composé de 70 espèces environ.
 Le nom vient du grec ancien "echinos" (=hérisson) et du latin "cereus" (=cierge) car la surface de l'ovaire et les fruits eux-mêmes sont épineux.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cactus globuleux, avec des épines serrées, souvent colorées et décoratives, pistil toujours de couleur verte cararctéristique du genre. Les fleurs durent un peu plus longtemps que celles des autres espèces de cactus parce qu'elles développent a l'intérieur avant de percer l'épiderme. Cette morphologie est probablement une adaptation aux basses températures[1]. Les fleurs sont généralement grandes (par rapport à la taille de la plante) et colorées. La couleur est influencée par le principal pollinisateur. Les fruits sont comestibles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cactus globuleux, avec des épines serrées, souvent colorées et décoratives, pistil toujours de couleur verte cararctéristique du genre. Les fleurs durent un peu plus longtemps que celles des autres espèces de cactus parce qu'elles développent a l'intérieur avant de percer l'épiderme. Cette morphologie est probablement une adaptation aux basses températures. Les fleurs sont généralement grandes (par rapport à la taille de la plante) et colorées. La couleur est influencée par le principal pollinisateur. Les fruits sont comestibles.
 Ces espèces sont buissonnantes.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les echinocereus sont de culture plus faciles que les autres cactus.
 Comme eux, ils ont besoin d'un sol léger, d'une exposition bien ensoleillé, d'une période hivernale au frais et au sec pour fleurir. Ils apprécient un sol un peu plus riche que les autres cactus. En culture en intérieur, il faut les garder au sec en hiver, à cause de l'humidité ambiante, mais arroser normalement en été, période de croissance.
@@ -578,7 +594,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont originaires du sud des États-Unis (et notamment du Texas) et du Mexique où ils poussent dans des terrains pierreux très ensoleillés.
 </t>
@@ -611,9 +629,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Espèces
-Synonymes
-Morangaya G. D. Rowley
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Morangaya G. D. Rowley
 Wilcoxia Britton &amp; Rose</t>
         </is>
       </c>
@@ -642,7 +664,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Echinocereus viereckii.
